--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/C27BBAAD-CB5C-46D3-AF29-DE348AE3C777/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B0CE1F0-261B-0A47-B4DF-7A7B8CDFEF80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0740C-0157-9247-B557-135823BFEDE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20980" yWindow="12240" windowWidth="18740" windowHeight="13680" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="10780" yWindow="12560" windowWidth="18740" windowHeight="13680" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>sid</t>
   </si>
@@ -81,9 +81,6 @@
     <t>B73</t>
   </si>
   <si>
-    <t>early leaf</t>
-  </si>
-  <si>
     <t>me14a</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Yu2015</t>
   </si>
   <si>
-    <t>late leaf</t>
-  </si>
-  <si>
     <t>me16a</t>
   </si>
   <si>
@@ -316,6 +310,42 @@
   </si>
   <si>
     <t>Settles</t>
+  </si>
+  <si>
+    <t>early leaf 13t</t>
+  </si>
+  <si>
+    <t>late leaf 9t</t>
+  </si>
+  <si>
+    <t>mec01</t>
+  </si>
+  <si>
+    <t>mec02</t>
+  </si>
+  <si>
+    <t>met01</t>
+  </si>
+  <si>
+    <t>dev atlas 41</t>
+  </si>
+  <si>
+    <t>dev atlas 64</t>
+  </si>
+  <si>
+    <t>leaf time series 22t</t>
+  </si>
+  <si>
+    <t>me16b+me16c</t>
+  </si>
+  <si>
+    <t>me16b+me16c+me99b</t>
+  </si>
+  <si>
+    <t>me13b+me15b</t>
+  </si>
+  <si>
+    <t>leaf 22t</t>
   </si>
 </sst>
 </file>
@@ -667,15 +697,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G19"/>
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -738,164 +771,164 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6">
         <v>380</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -903,96 +936,96 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1000,44 +1033,95 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
         <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/C27BBAAD-CB5C-46D3-AF29-DE348AE3C777/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/FFA29ED6-09E9-41C1-B0BA-4FEBDA2E2DC3/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0740C-0157-9247-B557-135823BFEDE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1EDD4-8CD1-0447-882A-AAB9F07A7C7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="12560" windowWidth="18740" windowHeight="13680" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="15020" yWindow="7420" windowWidth="17600" windowHeight="14180" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
   <si>
     <t>sid</t>
   </si>
@@ -346,6 +346,66 @@
   </si>
   <si>
     <t>leaf 22t</t>
+  </si>
+  <si>
+    <t>me10a</t>
+  </si>
+  <si>
+    <t>leaf 6 zones</t>
+  </si>
+  <si>
+    <t>Li2010</t>
+  </si>
+  <si>
+    <t>me11a</t>
+  </si>
+  <si>
+    <t>reproductive 12 tissues</t>
+  </si>
+  <si>
+    <t>Davidson2011</t>
+  </si>
+  <si>
+    <t>me14c</t>
+  </si>
+  <si>
+    <t>7 gamete</t>
+  </si>
+  <si>
+    <t>Chettoor2014</t>
+  </si>
+  <si>
+    <t>gamete 7</t>
+  </si>
+  <si>
+    <t>me12a</t>
+  </si>
+  <si>
+    <t>KN1 TF</t>
+  </si>
+  <si>
+    <t>Bolduc2012</t>
+  </si>
+  <si>
+    <t>meristem</t>
+  </si>
+  <si>
+    <t>me14d</t>
+  </si>
+  <si>
+    <t>ligule</t>
+  </si>
+  <si>
+    <t>Johnston2014</t>
+  </si>
+  <si>
+    <t>reproductive 12</t>
+  </si>
+  <si>
+    <t>maize dev atlas</t>
+  </si>
+  <si>
+    <t>me10a+me11a+me12a+me13b+me14c+me14d+me16b+me16c+me99b</t>
   </si>
 </sst>
 </file>
@@ -697,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G22"/>
+      <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,296 +796,284 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>380</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>380</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1033,94 +1081,205 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>99</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C28" t="s">
         <v>105</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
         <v>106</v>
       </c>
     </row>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/FFA29ED6-09E9-41C1-B0BA-4FEBDA2E2DC3/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/9960A53B-4091-445C-A794-5610A87A4C13/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1EDD4-8CD1-0447-882A-AAB9F07A7C7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790244DC-435D-CD4C-8C90-CA99D4CD1F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="7420" windowWidth="17600" windowHeight="14180" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="8720" yWindow="1720" windowWidth="16620" windowHeight="14300" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
   <si>
     <t>sid</t>
   </si>
@@ -42,12 +42,6 @@
     <t>tissue</t>
   </si>
   <si>
-    <t>reads</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>me13a</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>105 RILs</t>
   </si>
   <si>
-    <t>shoot apices</t>
-  </si>
-  <si>
     <t>20-30M</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>me13b</t>
   </si>
   <si>
-    <t>leaf time-series 1</t>
-  </si>
-  <si>
     <t>Liu2013</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>me14b</t>
   </si>
   <si>
-    <t>endosperm 7 time-points</t>
-  </si>
-  <si>
     <t>Li2014</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>me15b</t>
   </si>
   <si>
-    <t>leaf time-series 2</t>
-  </si>
-  <si>
     <t>Yu2015</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>23 tissues</t>
   </si>
   <si>
-    <t>proteomics</t>
-  </si>
-  <si>
     <t>me17a</t>
   </si>
   <si>
@@ -216,9 +195,6 @@
     <t>2-6M</t>
   </si>
   <si>
-    <t>3' RNA-Seq</t>
-  </si>
-  <si>
     <t>me18b</t>
   </si>
   <si>
@@ -234,9 +210,6 @@
     <t>3 root stages</t>
   </si>
   <si>
-    <t>20M * 3-4 reps</t>
-  </si>
-  <si>
     <t>me18c</t>
   </si>
   <si>
@@ -246,9 +219,6 @@
     <t>Wang2018</t>
   </si>
   <si>
-    <t>B73 and sorghum</t>
-  </si>
-  <si>
     <t>11 tissues</t>
   </si>
   <si>
@@ -264,9 +234,6 @@
     <t>78 inbreds</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>25M</t>
   </si>
   <si>
@@ -279,9 +246,6 @@
     <t>Briggs</t>
   </si>
   <si>
-    <t>B73, Mo17 and BxM</t>
-  </si>
-  <si>
     <t>me99c</t>
   </si>
   <si>
@@ -312,12 +276,6 @@
     <t>Settles</t>
   </si>
   <si>
-    <t>early leaf 13t</t>
-  </si>
-  <si>
-    <t>late leaf 9t</t>
-  </si>
-  <si>
     <t>mec01</t>
   </si>
   <si>
@@ -345,9 +303,6 @@
     <t>me13b+me15b</t>
   </si>
   <si>
-    <t>leaf 22t</t>
-  </si>
-  <si>
     <t>me10a</t>
   </si>
   <si>
@@ -360,9 +315,6 @@
     <t>me11a</t>
   </si>
   <si>
-    <t>reproductive 12 tissues</t>
-  </si>
-  <si>
     <t>Davidson2011</t>
   </si>
   <si>
@@ -406,6 +358,75 @@
   </si>
   <si>
     <t>me10a+me11a+me12a+me13b+me14c+me14d+me16b+me16c+me99b</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>readtype</t>
+  </si>
+  <si>
+    <t>illumina</t>
+  </si>
+  <si>
+    <t>41 tissues</t>
+  </si>
+  <si>
+    <t>64 tissues</t>
+  </si>
+  <si>
+    <t>380 lines</t>
+  </si>
+  <si>
+    <t>B73+Mo17+BxM</t>
+  </si>
+  <si>
+    <t>B73+sorghum</t>
+  </si>
+  <si>
+    <t>B73+Mo17</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>many tissues</t>
+  </si>
+  <si>
+    <t>3rnaseq</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>20M x 3 reps</t>
+  </si>
+  <si>
+    <t>stranded</t>
+  </si>
+  <si>
+    <t>endosperm 7t</t>
+  </si>
+  <si>
+    <t>leaf time-series 13t</t>
+  </si>
+  <si>
+    <t>leaf time-series 9t</t>
+  </si>
+  <si>
+    <t>early leaf</t>
+  </si>
+  <si>
+    <t>late leaf</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>reverse</t>
   </si>
 </sst>
 </file>
@@ -757,21 +778,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,505 +807,595 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C27" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H27" t="s">
         <v>121</v>
       </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>380</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>91</v>
       </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
       <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/9960A53B-4091-445C-A794-5610A87A4C13/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/38D66FE2-B65C-43AF-A9BA-3B369C3190F0/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790244DC-435D-CD4C-8C90-CA99D4CD1F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8C355-ED9A-8C4F-AB1F-2653B1C2886F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="1720" windowWidth="16620" windowHeight="14300" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="11060" yWindow="5900" windowWidth="16620" windowHeight="14300" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>sid</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>reverse</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -780,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,6 +841,9 @@
       <c r="D2" t="s">
         <v>113</v>
       </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
@@ -858,6 +864,9 @@
       <c r="D3" t="s">
         <v>113</v>
       </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
@@ -878,6 +887,9 @@
       <c r="D4" t="s">
         <v>113</v>
       </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
@@ -898,6 +910,9 @@
       <c r="D5" t="s">
         <v>113</v>
       </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
@@ -924,6 +939,9 @@
       <c r="D6" t="s">
         <v>113</v>
       </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
@@ -944,6 +962,9 @@
       <c r="D7" t="s">
         <v>113</v>
       </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
@@ -967,6 +988,9 @@
       <c r="D8" t="s">
         <v>123</v>
       </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
@@ -987,6 +1011,9 @@
       <c r="D9" t="s">
         <v>113</v>
       </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
@@ -1007,6 +1034,9 @@
       <c r="D10" t="s">
         <v>113</v>
       </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
@@ -1027,6 +1057,9 @@
       <c r="D11" t="s">
         <v>113</v>
       </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
@@ -1050,6 +1083,9 @@
       <c r="D12" t="s">
         <v>113</v>
       </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
@@ -1070,6 +1106,9 @@
       <c r="D13" t="s">
         <v>113</v>
       </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
@@ -1096,6 +1135,9 @@
       <c r="D14" t="s">
         <v>113</v>
       </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
       <c r="F14" t="s">
         <v>40</v>
       </c>
@@ -1119,6 +1161,9 @@
       <c r="D15" t="s">
         <v>113</v>
       </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
@@ -1142,6 +1187,9 @@
       <c r="D16" t="s">
         <v>113</v>
       </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
@@ -1165,6 +1213,9 @@
       <c r="D17" t="s">
         <v>122</v>
       </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
@@ -1188,6 +1239,9 @@
       <c r="D18" t="s">
         <v>113</v>
       </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
       <c r="F18" t="s">
         <v>124</v>
       </c>
@@ -1211,6 +1265,9 @@
       <c r="D19" t="s">
         <v>113</v>
       </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
       <c r="G19" t="s">
         <v>118</v>
       </c>
@@ -1231,6 +1288,9 @@
       <c r="D20" t="s">
         <v>113</v>
       </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
       <c r="F20" t="s">
         <v>69</v>
       </c>
@@ -1274,6 +1334,9 @@
       <c r="D22" t="s">
         <v>113</v>
       </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
       <c r="F22" t="s">
         <v>76</v>
       </c>
@@ -1297,6 +1360,9 @@
       <c r="D23" t="s">
         <v>122</v>
       </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
       <c r="G23" t="s">
         <v>119</v>
       </c>
@@ -1314,6 +1380,9 @@
       <c r="D24" t="s">
         <v>113</v>
       </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
       <c r="G24" t="s">
         <v>120</v>
       </c>
@@ -1331,6 +1400,9 @@
       <c r="D25" t="s">
         <v>113</v>
       </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
@@ -1351,6 +1423,9 @@
       <c r="D26" t="s">
         <v>113</v>
       </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
@@ -1371,6 +1446,9 @@
       <c r="D27" t="s">
         <v>113</v>
       </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
@@ -1390,6 +1468,9 @@
       </c>
       <c r="D28" t="s">
         <v>113</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/38D66FE2-B65C-43AF-A9BA-3B369C3190F0/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/08E5642F-701F-4621-AD3F-BE2CE64665BF/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8C355-ED9A-8C4F-AB1F-2653B1C2886F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31915B4-086B-1342-87BB-5ABCC901AEE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="5900" windowWidth="16620" windowHeight="14300" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="12800" yWindow="14180" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <t>sid</t>
   </si>
@@ -84,9 +84,6 @@
     <t>seedling</t>
   </si>
   <si>
-    <t>10-30M</t>
-  </si>
-  <si>
     <t>me14b</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Leiboff2015</t>
   </si>
   <si>
-    <t>20-50</t>
-  </si>
-  <si>
     <t>me15b</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>15 DAP kernels</t>
   </si>
   <si>
-    <t>20-50M</t>
-  </si>
-  <si>
     <t>phenotypic data</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>35 inbreds + 96 hybrids</t>
   </si>
   <si>
-    <t>20-40M</t>
-  </si>
-  <si>
     <t>me99d</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>me10a+me11a+me12a+me13b+me14c+me14d+me16b+me16c+me99b</t>
   </si>
   <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>readtype</t>
   </si>
   <si>
@@ -430,6 +415,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>assigned</t>
   </si>
 </sst>
 </file>
@@ -781,10 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,12 +786,14 @@
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,94 +804,115 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -908,48 +923,57 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6">
+        <v>269</v>
+      </c>
+      <c r="G6">
+        <v>183</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -960,523 +984,559 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10">
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12">
+        <v>240</v>
+      </c>
+      <c r="G12">
+        <v>162</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
         <v>113</v>
       </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
         <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/08E5642F-701F-4621-AD3F-BE2CE64665BF/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31915B4-086B-1342-87BB-5ABCC901AEE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA42F66-9A04-0442-A342-0CAAD5B6C877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="14180" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>sid</t>
   </si>
@@ -54,9 +54,6 @@
     <t>105 RILs</t>
   </si>
   <si>
-    <t>20-30M</t>
-  </si>
-  <si>
     <t>B73 and Mo17 IBM</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>18 tissues</t>
   </si>
   <si>
-    <t>10-20M</t>
-  </si>
-  <si>
     <t>me16c</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
   </si>
   <si>
     <t>solid</t>
-  </si>
-  <si>
-    <t>20M x 3 reps</t>
   </si>
   <si>
     <t>stranded</t>
@@ -776,7 +767,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -822,24 +813,24 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -848,27 +839,27 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -877,27 +868,27 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -906,10 +897,10 @@
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -923,10 +914,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F5">
         <v>57</v>
@@ -938,27 +929,27 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F6">
         <v>269</v>
@@ -967,27 +958,27 @@
         <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -996,27 +987,27 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <v>75</v>
@@ -1025,27 +1016,27 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -1054,27 +1045,27 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F10">
         <v>84</v>
@@ -1083,27 +1074,27 @@
         <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11">
         <v>33</v>
@@ -1112,27 +1103,27 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F12">
         <v>240</v>
@@ -1141,27 +1132,27 @@
         <v>162</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F13">
         <v>37</v>
@@ -1170,229 +1161,244 @@
         <v>25</v>
       </c>
       <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
         <v>30</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="I16" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="I17" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="I18" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
+        <v>125</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F22">
         <v>33</v>
@@ -1401,142 +1407,142 @@
         <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/08E5642F-701F-4621-AD3F-BE2CE64665BF/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/6497002E-C1BE-421B-8456-6F0655D0A9B9/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA42F66-9A04-0442-A342-0CAAD5B6C877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613EAFC0-A69F-1F41-AC1C-4EB145DFC026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="14180" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
   <si>
     <t>sid</t>
   </si>
@@ -276,15 +276,6 @@
     <t>leaf time series 22t</t>
   </si>
   <si>
-    <t>me16b+me16c</t>
-  </si>
-  <si>
-    <t>me16b+me16c+me99b</t>
-  </si>
-  <si>
-    <t>me13b+me15b</t>
-  </si>
-  <si>
     <t>me10a</t>
   </si>
   <si>
@@ -339,9 +330,6 @@
     <t>maize dev atlas</t>
   </si>
   <si>
-    <t>me10a+me11a+me12a+me13b+me14c+me14d+me16b+me16c+me99b</t>
-  </si>
-  <si>
     <t>readtype</t>
   </si>
   <si>
@@ -412,6 +400,9 @@
   </si>
   <si>
     <t>assigned</t>
+  </si>
+  <si>
+    <t>mec03</t>
   </si>
 </sst>
 </file>
@@ -767,7 +758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="A1:J28"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,16 +786,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -813,24 +804,24 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -842,24 +833,24 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -871,24 +862,24 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -900,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -914,10 +905,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>57</v>
@@ -940,16 +931,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>269</v>
@@ -961,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -975,10 +966,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -998,16 +989,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>75</v>
@@ -1024,19 +1015,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -1048,24 +1039,24 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>84</v>
@@ -1077,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1091,10 +1082,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F11">
         <v>33</v>
@@ -1103,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1114,16 +1105,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <v>240</v>
@@ -1135,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1149,10 +1140,10 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <v>37</v>
@@ -1181,10 +1172,10 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14">
         <v>30</v>
@@ -1210,10 +1201,10 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15">
         <v>70</v>
@@ -1239,10 +1230,10 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F16">
         <v>24</v>
@@ -1268,10 +1259,10 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -1294,10 +1285,10 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18">
         <v>71</v>
@@ -1323,13 +1314,13 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
         <v>59</v>
@@ -1346,10 +1337,10 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
@@ -1369,10 +1360,10 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F21">
         <v>34</v>
@@ -1381,7 +1372,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -1395,10 +1386,10 @@
         <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22">
         <v>33</v>
@@ -1424,13 +1415,13 @@
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1444,13 +1435,13 @@
         <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1460,20 +1451,11 @@
       <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
-      </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1483,43 +1465,25 @@
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
-      </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1529,20 +1493,11 @@
       <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/6497002E-C1BE-421B-8456-6F0655D0A9B9/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/9758CF35-C99E-423C-AF3B-6AC5D7C1039C/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613EAFC0-A69F-1F41-AC1C-4EB145DFC026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58990150-BEF8-A64B-A959-499CDFC7E299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="14180" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
@@ -327,9 +327,6 @@
     <t>reproductive 12</t>
   </si>
   <si>
-    <t>maize dev atlas</t>
-  </si>
-  <si>
     <t>readtype</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>W22</t>
   </si>
   <si>
-    <t>many tissues</t>
-  </si>
-  <si>
     <t>3rnaseq</t>
   </si>
   <si>
@@ -403,6 +397,12 @@
   </si>
   <si>
     <t>mec03</t>
+  </si>
+  <si>
+    <t>122 tissues</t>
+  </si>
+  <si>
+    <t>dev atlas 122</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,16 +786,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -804,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -847,10 +847,10 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -876,10 +876,10 @@
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -905,10 +905,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5">
         <v>57</v>
@@ -931,16 +931,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>269</v>
@@ -952,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -966,10 +966,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -989,16 +989,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <v>75</v>
@@ -1024,10 +1024,10 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -1053,10 +1053,10 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>84</v>
@@ -1082,10 +1082,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <v>33</v>
@@ -1094,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1105,16 +1105,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12">
         <v>240</v>
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1140,10 +1140,10 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>37</v>
@@ -1172,10 +1172,10 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14">
         <v>30</v>
@@ -1201,10 +1201,10 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15">
         <v>70</v>
@@ -1230,10 +1230,10 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>24</v>
@@ -1259,10 +1259,10 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -1285,10 +1285,10 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18">
         <v>71</v>
@@ -1314,13 +1314,13 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
         <v>59</v>
@@ -1337,10 +1337,10 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
@@ -1360,10 +1360,10 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21">
         <v>34</v>
@@ -1372,7 +1372,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -1386,10 +1386,10 @@
         <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F22">
         <v>33</v>
@@ -1415,13 +1415,13 @@
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1435,13 +1435,13 @@
         <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1455,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1469,21 +1469,21 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
         <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/9758CF35-C99E-423C-AF3B-6AC5D7C1039C/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F9C343C3-4718-4C15-A1DE-225DE1509335/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58990150-BEF8-A64B-A959-499CDFC7E299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A24B5B0-79CC-224C-B34C-280A4CF92DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="14180" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="12800" yWindow="14160" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
   <si>
     <t>sid</t>
   </si>
@@ -54,9 +54,6 @@
     <t>105 RILs</t>
   </si>
   <si>
-    <t>B73 and Mo17 IBM</t>
-  </si>
-  <si>
     <t>me13b</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>368 inbred lines</t>
   </si>
   <si>
-    <t>15 DAP kernels</t>
-  </si>
-  <si>
-    <t>phenotypic data</t>
-  </si>
-  <si>
     <t>me16b</t>
   </si>
   <si>
@@ -381,9 +372,6 @@
     <t>leaf</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>reverse</t>
   </si>
   <si>
@@ -403,6 +391,27 @@
   </si>
   <si>
     <t>dev atlas 122</t>
+  </si>
+  <si>
+    <t>kernel_15DAP</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>local_interleaved</t>
   </si>
 </sst>
 </file>
@@ -754,28 +763,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="A1:J28"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,115 +796,127 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2">
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I3">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -905,599 +927,665 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6">
+        <v>269</v>
+      </c>
+      <c r="I6">
+        <v>183</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10">
+        <v>84</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
         <v>101</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12">
+        <v>240</v>
+      </c>
+      <c r="I12">
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21">
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22">
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
         <v>120</v>
       </c>
-      <c r="F5">
-        <v>57</v>
-      </c>
-      <c r="G5">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6">
-        <v>269</v>
-      </c>
-      <c r="G6">
-        <v>183</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10">
-        <v>84</v>
-      </c>
-      <c r="G10">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="K28" t="s">
         <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12">
-        <v>240</v>
-      </c>
-      <c r="G12">
-        <v>162</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13">
-        <v>37</v>
-      </c>
-      <c r="G13">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-      <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15">
-        <v>70</v>
-      </c>
-      <c r="G15">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16">
-        <v>24</v>
-      </c>
-      <c r="G16">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18">
-        <v>71</v>
-      </c>
-      <c r="G18">
-        <v>63</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="G21">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22">
-        <v>33</v>
-      </c>
-      <c r="G22">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F9C343C3-4718-4C15-A1DE-225DE1509335/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2895C311-E936-4EB4-87BA-86A6174E9A19/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A24B5B0-79CC-224C-B34C-280A4CF92DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C66A10-3451-1546-AAC4-601D9A4BB128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="14160" windowWidth="15960" windowHeight="14060" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="12780" yWindow="13440" windowWidth="19180" windowHeight="14240" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
   <si>
     <t>sid</t>
   </si>
@@ -412,6 +412,24 @@
   </si>
   <si>
     <t>local_interleaved</t>
+  </si>
+  <si>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>hisat2</t>
+  </si>
+  <si>
+    <t>Mo17</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>me99b.m</t>
   </si>
 </sst>
 </file>
@@ -763,16 +781,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -783,9 +801,11 @@
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
     <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,8 +839,14 @@
       <c r="K1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -851,8 +877,14 @@
       <c r="K2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -883,8 +915,14 @@
       <c r="K3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -915,8 +953,14 @@
       <c r="K4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -947,8 +991,14 @@
       <c r="K5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -979,8 +1029,14 @@
       <c r="K6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1011,8 +1067,14 @@
       <c r="K7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1043,8 +1105,14 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1075,8 +1143,14 @@
       <c r="K9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1107,8 +1181,14 @@
       <c r="K10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1139,8 +1219,14 @@
       <c r="K11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1171,8 +1257,14 @@
       <c r="K12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="K13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1235,8 +1333,14 @@
       <c r="K14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1267,8 +1371,14 @@
       <c r="K15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1299,8 +1409,14 @@
       <c r="K16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1328,8 +1444,14 @@
       <c r="K17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1360,8 +1482,14 @@
       <c r="K18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1386,8 +1514,14 @@
       <c r="K19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1412,8 +1546,14 @@
       <c r="J20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1444,105 +1584,150 @@
       <c r="K21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22">
+        <v>34</v>
+      </c>
+      <c r="I22">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22">
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23">
         <v>33</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>25</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>67</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
         <v>116</v>
       </c>
       <c r="J24" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
       </c>
       <c r="G26" t="s">
         <v>124</v>
@@ -1551,15 +1736,18 @@
         <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
         <v>124</v>
@@ -1568,15 +1756,18 @@
         <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s">
         <v>124</v>
@@ -1585,7 +1776,30 @@
         <v>11</v>
       </c>
       <c r="K28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
         <v>114</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2895C311-E936-4EB4-87BA-86A6174E9A19/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/4DCBEAAE-745A-40B3-BD85-59B590295A0E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C66A10-3451-1546-AAC4-601D9A4BB128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ECB6AB-023C-8340-9792-CE5CB865CC6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="13440" windowWidth="19180" windowHeight="14240" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="7440" yWindow="9900" windowWidth="19180" windowHeight="14920" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="152">
   <si>
     <t>sid</t>
   </si>
@@ -387,12 +387,6 @@
     <t>mec03</t>
   </si>
   <si>
-    <t>122 tissues</t>
-  </si>
-  <si>
-    <t>dev atlas 122</t>
-  </si>
-  <si>
     <t>kernel_15DAP</t>
   </si>
   <si>
@@ -430,6 +424,63 @@
   </si>
   <si>
     <t>me99b.m</t>
+  </si>
+  <si>
+    <t>me18d</t>
+  </si>
+  <si>
+    <t>root ionics</t>
+  </si>
+  <si>
+    <t>Schaefer2018</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>48 inbreds</t>
+  </si>
+  <si>
+    <t>me13c</t>
+  </si>
+  <si>
+    <t>diverse inbreds</t>
+  </si>
+  <si>
+    <t>Eitchen2013</t>
+  </si>
+  <si>
+    <t>me99f</t>
+  </si>
+  <si>
+    <t>endosperm imprinting</t>
+  </si>
+  <si>
+    <t>sna</t>
+  </si>
+  <si>
+    <t>B73,W22,PH207,F1</t>
+  </si>
+  <si>
+    <t>62 inbreds</t>
+  </si>
+  <si>
+    <t>me13d</t>
+  </si>
+  <si>
+    <t>imprinting endosperm</t>
+  </si>
+  <si>
+    <t>Waters2013</t>
+  </si>
+  <si>
+    <t>4 reciprocal hybrids</t>
+  </si>
+  <si>
+    <t>dev atlas 200</t>
+  </si>
+  <si>
+    <t>200 tissues</t>
   </si>
 </sst>
 </file>
@@ -781,17 +832,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="A1:M29"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -816,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>97</v>
@@ -825,7 +876,7 @@
         <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>117</v>
@@ -840,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -857,7 +908,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
@@ -881,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -895,7 +946,7 @@
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
         <v>98</v>
@@ -919,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -933,7 +984,7 @@
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
@@ -957,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -971,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -995,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1009,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>98</v>
@@ -1033,21 +1084,21 @@
         <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>98</v>
@@ -1055,52 +1106,37 @@
       <c r="F7" t="s">
         <v>116</v>
       </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
       <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>116</v>
       </c>
-      <c r="H8">
-        <v>75</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -1109,21 +1145,21 @@
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
         <v>98</v>
@@ -1132,74 +1168,74 @@
         <v>116</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
         <v>116</v>
       </c>
       <c r="H10">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>98</v>
@@ -1208,36 +1244,36 @@
         <v>116</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I11">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
         <v>98</v>
@@ -1246,74 +1282,74 @@
         <v>116</v>
       </c>
       <c r="H12">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="I12">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13">
+        <v>33</v>
+      </c>
+      <c r="I13">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13">
-        <v>37</v>
-      </c>
-      <c r="I13">
-        <v>25</v>
-      </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
         <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>98</v>
@@ -1322,36 +1358,36 @@
         <v>116</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I14">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s">
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
         <v>98</v>
@@ -1360,36 +1396,36 @@
         <v>116</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I15">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
         <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
@@ -1398,71 +1434,74 @@
         <v>116</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
         <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
         <v>116</v>
       </c>
-      <c r="I17" t="s">
-        <v>47</v>
+      <c r="H17">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
         <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
@@ -1471,68 +1510,71 @@
         <v>116</v>
       </c>
       <c r="H18">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
         <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
         <v>116</v>
       </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
         <v>98</v>
@@ -1540,104 +1582,101 @@
       <c r="F20" t="s">
         <v>116</v>
       </c>
-      <c r="I20" t="s">
-        <v>61</v>
+      <c r="H20">
+        <v>71</v>
+      </c>
+      <c r="I20">
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
       </c>
       <c r="L20" t="s">
         <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
         <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21">
-        <v>34</v>
-      </c>
-      <c r="I21">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
         <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
       </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
         <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22">
-        <v>34</v>
-      </c>
-      <c r="I22">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="L22" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="M22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
         <v>98</v>
@@ -1645,160 +1684,297 @@
       <c r="F23" t="s">
         <v>116</v>
       </c>
-      <c r="H23">
-        <v>33</v>
-      </c>
-      <c r="I23">
-        <v>25</v>
+      <c r="I23" t="s">
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s">
         <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="H24">
+        <v>34</v>
+      </c>
+      <c r="I24">
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
       </c>
       <c r="L24" t="s">
         <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
         <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="H25">
+        <v>34</v>
+      </c>
+      <c r="I25">
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s">
-        <v>124</v>
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="L26" t="s">
         <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" t="s">
-        <v>124</v>
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s">
         <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" t="s">
-        <v>124</v>
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s">
         <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="G29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
         <v>114</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L33" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/4DCBEAAE-745A-40B3-BD85-59B590295A0E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/DC0BFF53-2735-4FF5-8524-B87F23165CD4/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.expression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ECB6AB-023C-8340-9792-CE5CB865CC6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39082B49-4C15-9C4D-A4C5-19A5755907B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="9900" windowWidth="19180" windowHeight="14920" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="3860" yWindow="12960" windowWidth="19180" windowHeight="14920" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="156">
   <si>
     <t>sid</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Kaeppler2018</t>
   </si>
   <si>
-    <t>78 inbreds</t>
-  </si>
-  <si>
-    <t>25M</t>
-  </si>
-  <si>
     <t>me99b</t>
   </si>
   <si>
@@ -453,24 +447,15 @@
     <t>me99f</t>
   </si>
   <si>
-    <t>endosperm imprinting</t>
-  </si>
-  <si>
     <t>sna</t>
   </si>
   <si>
-    <t>B73,W22,PH207,F1</t>
-  </si>
-  <si>
     <t>62 inbreds</t>
   </si>
   <si>
     <t>me13d</t>
   </si>
   <si>
-    <t>imprinting endosperm</t>
-  </si>
-  <si>
     <t>Waters2013</t>
   </si>
   <si>
@@ -481,6 +466,33 @@
   </si>
   <si>
     <t>200 tissues</t>
+  </si>
+  <si>
+    <t>seedling_leaf3</t>
+  </si>
+  <si>
+    <t>me17b</t>
+  </si>
+  <si>
+    <t>stress cis-trans</t>
+  </si>
+  <si>
+    <t>Waters2017</t>
+  </si>
+  <si>
+    <t>imprinting</t>
+  </si>
+  <si>
+    <t>B73,Mo17,PH207 and F1</t>
+  </si>
+  <si>
+    <t>seedlilng</t>
+  </si>
+  <si>
+    <t>F1 btw. B,W,P</t>
+  </si>
+  <si>
+    <t>170 inbreds + 299 (96) F1</t>
   </si>
 </sst>
 </file>
@@ -832,17 +844,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -850,7 +862,7 @@
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
@@ -867,22 +879,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -891,30 +903,30 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -926,33 +938,33 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -964,33 +976,33 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -1002,13 +1014,13 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1022,13 +1034,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -1046,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1054,19 +1066,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6">
         <v>269</v>
@@ -1078,65 +1090,68 @@
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>147</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -1145,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1159,13 +1174,13 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1183,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1191,19 +1206,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10">
         <v>75</v>
@@ -1221,27 +1236,27 @@
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H11">
         <v>80</v>
@@ -1253,33 +1268,33 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
         <v>93</v>
       </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H12">
         <v>84</v>
@@ -1291,13 +1306,13 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1311,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H13">
         <v>33</v>
@@ -1326,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -1335,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1343,19 +1358,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H14">
         <v>240</v>
@@ -1367,13 +1382,13 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s">
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1387,13 +1402,13 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H15">
         <v>37</v>
@@ -1405,13 +1420,13 @@
         <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
         <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1425,13 +1440,13 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -1449,7 +1464,7 @@
         <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1463,13 +1478,13 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17">
         <v>70</v>
@@ -1487,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1501,13 +1516,13 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H18">
         <v>24</v>
@@ -1525,234 +1540,228 @@
         <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20">
-        <v>71</v>
-      </c>
-      <c r="I20">
-        <v>63</v>
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
         <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="H21">
+        <v>71</v>
+      </c>
+      <c r="I21">
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L21" t="s">
         <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="L22" t="s">
         <v>11</v>
       </c>
       <c r="M22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>134</v>
       </c>
       <c r="L23" t="s">
         <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24">
-        <v>34</v>
-      </c>
-      <c r="I24">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="K24" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L24" t="s">
         <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H25">
         <v>34</v>
@@ -1761,178 +1770,199 @@
         <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
         <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="M26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
       </c>
       <c r="L27" t="s">
         <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="K28" t="s">
+        <v>112</v>
       </c>
       <c r="L28" t="s">
         <v>11</v>
       </c>
       <c r="M28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
         <v>11</v>
       </c>
       <c r="M29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s">
-        <v>122</v>
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
         <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
         <v>11</v>
@@ -1940,19 +1970,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s">
         <v>11</v>
@@ -1960,21 +1990,41 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/1C4820CF-7426-4249-8FF2-D6E58784D046/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/C0B54761-AF83-4F15-8C03-A8D87CBB9BF0/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08636965-A2F3-D848-AA1B-434C38B0140C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03103259-330D-2B41-B8C4-BA2EA7825414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="7420" windowWidth="19180" windowHeight="17100" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="520" yWindow="9920" windowWidth="19180" windowHeight="17100" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="167">
   <si>
     <t>sid</t>
   </si>
@@ -492,9 +492,6 @@
     <t>me10a+me13b+me15b</t>
   </si>
   <si>
-    <t>leaf 28</t>
-  </si>
-  <si>
     <t>leaf 22</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>me14b+me14e</t>
   </si>
   <si>
-    <t>seed 60</t>
-  </si>
-  <si>
     <t>76 tissues</t>
   </si>
   <si>
@@ -520,6 +514,18 @@
   </si>
   <si>
     <t>li2019</t>
+  </si>
+  <si>
+    <t>leaf 40</t>
+  </si>
+  <si>
+    <t>embryo+endosperm 61</t>
+  </si>
+  <si>
+    <t>mec04</t>
+  </si>
+  <si>
+    <t>me17c+me18b</t>
   </si>
 </sst>
 </file>
@@ -871,11 +877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,8 +896,8 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
@@ -1521,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -1833,7 +1839,7 @@
         <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s">
         <v>30</v>
@@ -1929,7 +1935,7 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
         <v>93</v>
@@ -2081,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -2095,7 +2101,7 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
         <v>92</v>
@@ -2113,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="L34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -2127,7 +2133,7 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
         <v>92</v>
@@ -2145,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="L35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -2156,10 +2162,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
         <v>92</v>
@@ -2177,12 +2183,44 @@
         <v>9</v>
       </c>
       <c r="L36" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
         <v>156</v>
       </c>
-      <c r="M36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" t="s">
+        <v>155</v>
+      </c>
+      <c r="M37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" t="s">
         <v>95</v>
       </c>
     </row>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/C0B54761-AF83-4F15-8C03-A8D87CBB9BF0/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/5930160D-4E69-4937-B874-021335823056/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03103259-330D-2B41-B8C4-BA2EA7825414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F79E71-FC6C-2743-8C8E-C5A1D6C66088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="9920" windowWidth="19180" windowHeight="17100" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="167">
   <si>
     <t>sid</t>
   </si>
@@ -881,7 +881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1783,9 +1783,6 @@
       <c r="M24" t="s">
         <v>9</v>
       </c>
-      <c r="N24" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/CFDB611D-FBFD-4654-B227-B068A8F6B7DB/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/57F3B8FA-26A3-44BD-B0ED-346E7DE1DF47/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB61AA-F7CC-A747-BB94-9ACFA34E5A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBB9E3-2DF9-5745-8C0D-E906AB60FAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="9920" windowWidth="19180" windowHeight="17100" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="19580" yWindow="5760" windowWidth="16860" windowHeight="16460" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="162">
-  <si>
-    <t>sid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="169">
   <si>
     <t>study</t>
   </si>
@@ -300,9 +297,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>me99b.m</t>
-  </si>
-  <si>
     <t>me18d</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
     <t>kaeppler2018</t>
   </si>
   <si>
-    <t>briggs</t>
-  </si>
-  <si>
     <t>enders</t>
   </si>
   <si>
@@ -511,6 +502,36 @@
   </si>
   <si>
     <t>dev atlas</t>
+  </si>
+  <si>
+    <t>me19a</t>
+  </si>
+  <si>
+    <t>widiv biomass</t>
+  </si>
+  <si>
+    <t>mazaheri2019</t>
+  </si>
+  <si>
+    <t>453 inbreds</t>
+  </si>
+  <si>
+    <t>whole seedlings</t>
+  </si>
+  <si>
+    <t>yid</t>
+  </si>
+  <si>
+    <t>zhou2018</t>
+  </si>
+  <si>
+    <t>me99b_m</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -862,1290 +883,1428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="10" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K3">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8">
         <v>8</v>
       </c>
       <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
       </c>
       <c r="K9">
         <v>503</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>122</v>
       </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
         <v>123</v>
       </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>110</v>
       </c>
       <c r="K13">
         <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <v>380</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15">
         <v>9</v>
       </c>
       <c r="L15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16">
         <v>368</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K17">
         <v>93</v>
       </c>
       <c r="L17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
       </c>
       <c r="K18">
         <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>27</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
       </c>
       <c r="K19">
         <v>133</v>
       </c>
       <c r="L19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" t="s">
-        <v>106</v>
-      </c>
       <c r="L20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s">
-        <v>113</v>
-      </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K21">
         <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>31</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
       </c>
       <c r="K22">
         <v>1781</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>35</v>
-      </c>
-      <c r="J23" t="s">
-        <v>36</v>
       </c>
       <c r="K23">
         <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" t="s">
         <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" t="s">
-        <v>94</v>
       </c>
       <c r="K24">
         <v>48</v>
       </c>
       <c r="L24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25">
+        <v>453</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>460</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
         <v>83</v>
       </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25">
-        <v>460</v>
-      </c>
-      <c r="L25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
         <v>23</v>
-      </c>
-      <c r="L26" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
       </c>
       <c r="K27">
         <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="M27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28">
-        <v>465</v>
-      </c>
-      <c r="L28" t="s">
-        <v>8</v>
       </c>
       <c r="M28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>465</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34">
+        <v>61</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="H29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31">
-        <v>12</v>
-      </c>
-      <c r="L31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" t="s">
-        <v>152</v>
-      </c>
-      <c r="K32">
-        <v>40</v>
-      </c>
-      <c r="L32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="L35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K33">
-        <v>61</v>
-      </c>
-      <c r="L33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34">
-        <v>139</v>
-      </c>
-      <c r="L34" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35">
-        <v>50</v>
-      </c>
-      <c r="L35" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36">
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37">
         <v>22</v>
       </c>
-      <c r="L36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" t="s">
-        <v>87</v>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/57F3B8FA-26A3-44BD-B0ED-346E7DE1DF47/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBB9E3-2DF9-5745-8C0D-E906AB60FAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67937153-6F09-0A4C-9290-3BE2E7787F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="5760" windowWidth="16860" windowHeight="16460" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="15580" yWindow="4440" windowWidth="16860" windowHeight="18200" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/57F3B8FA-26A3-44BD-B0ED-346E7DE1DF47/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2A0A8136-5501-4B3C-BE0A-0A180DC49D4E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67937153-6F09-0A4C-9290-3BE2E7787F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B2C12-7077-2544-88F7-3A99B22CF5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="4440" windowWidth="16860" windowHeight="18200" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="1280" yWindow="8440" windowWidth="16860" windowHeight="18200" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="169">
   <si>
     <t>study</t>
   </si>
@@ -498,9 +498,6 @@
     <t>368 inbreds</t>
   </si>
   <si>
-    <t>root 50</t>
-  </si>
-  <si>
     <t>dev atlas</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>7 inbreds + 8 hybrids</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,7 +911,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>85</v>
       </c>
       <c r="N1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" t="s">
         <v>167</v>
-      </c>
-      <c r="O1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1057,6 +1057,9 @@
       <c r="J4" t="s">
         <v>58</v>
       </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
       <c r="L4" t="s">
         <v>7</v>
       </c>
@@ -1823,13 +1826,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>160</v>
-      </c>
-      <c r="C25" t="s">
-        <v>161</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
@@ -1841,10 +1844,10 @@
         <v>76</v>
       </c>
       <c r="I25" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" t="s">
         <v>162</v>
-      </c>
-      <c r="J25" t="s">
-        <v>163</v>
       </c>
       <c r="K25">
         <v>453</v>
@@ -1854,6 +1857,9 @@
       </c>
       <c r="M25" t="s">
         <v>86</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1902,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
@@ -1934,13 +1940,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
         <v>83</v>
@@ -2042,7 +2048,7 @@
       <c r="M30" t="s">
         <v>86</v>
       </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2212,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K35">
         <v>139</v>
@@ -2247,10 +2253,10 @@
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="K36">
         <v>50</v>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2A0A8136-5501-4B3C-BE0A-0A180DC49D4E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/D0289532-099B-4A69-A0A5-2057505B7BE7/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B2C12-7077-2544-88F7-3A99B22CF5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9421739-9785-DB4E-BA25-99FCF73C68D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="8440" windowWidth="16860" windowHeight="18200" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="2140" yWindow="9720" windowWidth="16860" windowHeight="18200" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="174">
   <si>
     <t>study</t>
   </si>
@@ -78,12 +78,6 @@
     <t>me15b</t>
   </si>
   <si>
-    <t>me16a</t>
-  </si>
-  <si>
-    <t>ePAV GWAS</t>
-  </si>
-  <si>
     <t>me16b</t>
   </si>
   <si>
@@ -405,9 +399,6 @@
     <t>yu2015</t>
   </si>
   <si>
-    <t>jin2016</t>
-  </si>
-  <si>
     <t>stelpflug2016</t>
   </si>
   <si>
@@ -532,6 +523,30 @@
   </si>
   <si>
     <t>7 inbreds + 8 hybrids</t>
+  </si>
+  <si>
+    <t>me18c</t>
+  </si>
+  <si>
+    <t>maize-teosinte RIL</t>
+  </si>
+  <si>
+    <t>wang2018</t>
+  </si>
+  <si>
+    <t>W,T and RILs</t>
+  </si>
+  <si>
+    <t>seedling_v2</t>
+  </si>
+  <si>
+    <t>me13e</t>
+  </si>
+  <si>
+    <t>fu2013</t>
+  </si>
+  <si>
+    <t>kernel eQTL</t>
   </si>
 </sst>
 </file>
@@ -883,11 +898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,7 +926,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -920,19 +935,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -941,45 +956,45 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -988,36 +1003,36 @@
         <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -1026,36 +1041,36 @@
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1064,10 +1079,10 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1078,19 +1093,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1102,10 +1117,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1113,25 +1128,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -1140,36 +1155,36 @@
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s">
-        <v>97</v>
-      </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>62</v>
@@ -1178,33 +1193,33 @@
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -1216,109 +1231,109 @@
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
       <c r="K9">
-        <v>503</v>
+        <v>368</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1327,223 +1342,223 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="K14">
-        <v>380</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
         <v>7</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="L15" t="s">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>368</v>
+        <v>9</v>
       </c>
       <c r="L16" t="s">
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K17">
         <v>93</v>
@@ -1552,36 +1567,36 @@
         <v>7</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
       </c>
       <c r="K18">
         <v>23</v>
@@ -1590,36 +1605,36 @@
         <v>7</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="J19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
       </c>
       <c r="K19">
         <v>133</v>
@@ -1628,74 +1643,74 @@
         <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" t="s">
         <v>102</v>
       </c>
-      <c r="C20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" t="s">
-        <v>104</v>
-      </c>
       <c r="L20" t="s">
         <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s">
-        <v>111</v>
-      </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -1704,36 +1719,36 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="J22" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
       </c>
       <c r="K22">
         <v>1781</v>
@@ -1742,36 +1757,36 @@
         <v>7</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="J23" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" t="s">
-        <v>35</v>
       </c>
       <c r="K23">
         <v>46</v>
@@ -1780,533 +1795,571 @@
         <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="K24">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="L24" t="s">
         <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>453</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
         <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="K26">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L26" t="s">
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K27">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="L27" t="s">
         <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K28">
         <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K29">
-        <v>465</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>465</v>
       </c>
       <c r="L30" t="s">
         <v>7</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
         <v>135</v>
       </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s">
-        <v>65</v>
-      </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
         <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="N31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s">
-        <v>105</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
-      <c r="K32">
-        <v>12</v>
-      </c>
       <c r="L32" t="s">
         <v>7</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="K33">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
         <v>7</v>
       </c>
       <c r="M33" t="s">
-        <v>86</v>
-      </c>
-      <c r="N33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="K34">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="L34" t="s">
         <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="K35">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="L35" t="s">
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="K36">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s">
         <v>7</v>
       </c>
       <c r="M36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="K37">
+        <v>50</v>
+      </c>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38">
         <v>22</v>
       </c>
-      <c r="L37" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" t="s">
-        <v>86</v>
-      </c>
-      <c r="N37" t="s">
-        <v>80</v>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N38" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/01.cfg.xlsx
+++ b/data/01.cfg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/D0289532-099B-4A69-A0A5-2057505B7BE7/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/BA336ECC-0F77-4DBC-A38B-DBEB9756C29C/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/rnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9421739-9785-DB4E-BA25-99FCF73C68D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9221F-6FED-7C47-B9B5-162FC3B2E79D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="9720" windowWidth="16860" windowHeight="18200" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
+    <workbookView xWindow="4060" yWindow="7700" windowWidth="18060" windowHeight="17760" xr2:uid="{81839E5A-B30A-714E-A338-8A2997A55AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="178">
   <si>
     <t>study</t>
   </si>
@@ -282,271 +282,283 @@
     <t>star</t>
   </si>
   <si>
+    <t>me18d</t>
+  </si>
+  <si>
+    <t>root ionics</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>48 inbreds</t>
+  </si>
+  <si>
+    <t>me13c</t>
+  </si>
+  <si>
+    <t>diverse inbreds</t>
+  </si>
+  <si>
+    <t>me99f</t>
+  </si>
+  <si>
+    <t>62 inbreds</t>
+  </si>
+  <si>
+    <t>me13d</t>
+  </si>
+  <si>
+    <t>4 reciprocal hybrids</t>
+  </si>
+  <si>
+    <t>seedling_leaf3</t>
+  </si>
+  <si>
+    <t>me17b</t>
+  </si>
+  <si>
+    <t>stress cis-trans</t>
+  </si>
+  <si>
+    <t>imprinting</t>
+  </si>
+  <si>
+    <t>seedlilng</t>
+  </si>
+  <si>
+    <t>F1 btw. B,W,P</t>
+  </si>
+  <si>
+    <t>me14e</t>
+  </si>
+  <si>
+    <t>embryo+endosperm</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>me17c</t>
+  </si>
+  <si>
+    <t>marcon2017</t>
+  </si>
+  <si>
+    <t>B, M anf F1</t>
+  </si>
+  <si>
+    <t>li2010</t>
+  </si>
+  <si>
+    <t>davidson2011</t>
+  </si>
+  <si>
+    <t>bolduc2012</t>
+  </si>
+  <si>
+    <t>li2013</t>
+  </si>
+  <si>
+    <t>liu2013</t>
+  </si>
+  <si>
+    <t>eitchen2013</t>
+  </si>
+  <si>
+    <t>waters2013</t>
+  </si>
+  <si>
+    <t>hirsch2014</t>
+  </si>
+  <si>
+    <t>li2014</t>
+  </si>
+  <si>
+    <t>chettoor2014</t>
+  </si>
+  <si>
+    <t>johnston2014</t>
+  </si>
+  <si>
+    <t>chen2014</t>
+  </si>
+  <si>
+    <t>leiboff2015</t>
+  </si>
+  <si>
+    <t>yu2015</t>
+  </si>
+  <si>
+    <t>stelpflug2016</t>
+  </si>
+  <si>
+    <t>walley2016</t>
+  </si>
+  <si>
+    <t>lin2017</t>
+  </si>
+  <si>
+    <t>kremling2018</t>
+  </si>
+  <si>
+    <t>baldauf2018</t>
+  </si>
+  <si>
+    <t>schaefer2018</t>
+  </si>
+  <si>
+    <t>kaeppler2018</t>
+  </si>
+  <si>
+    <t>enders</t>
+  </si>
+  <si>
+    <t>settles</t>
+  </si>
+  <si>
+    <t>anderson</t>
+  </si>
+  <si>
+    <t>B, M, P and F1</t>
+  </si>
+  <si>
+    <t>B and M</t>
+  </si>
+  <si>
+    <t>drought stress</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>waters2017</t>
+  </si>
+  <si>
+    <t>me10a+me13b+me15b</t>
+  </si>
+  <si>
+    <t>leaf 22</t>
+  </si>
+  <si>
+    <t>me13b+me15b</t>
+  </si>
+  <si>
+    <t>me14b+me14e</t>
+  </si>
+  <si>
+    <t>me16b+me16c+me99b</t>
+  </si>
+  <si>
+    <t>170 inbreds + 96 hybrids</t>
+  </si>
+  <si>
+    <t>li2019</t>
+  </si>
+  <si>
+    <t>leaf 40</t>
+  </si>
+  <si>
+    <t>mec04</t>
+  </si>
+  <si>
+    <t>me17c+me18b</t>
+  </si>
+  <si>
+    <t>93 tissues</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>reproductive</t>
+  </si>
+  <si>
+    <t>B,M and RILs</t>
+  </si>
+  <si>
+    <t>368 inbreds</t>
+  </si>
+  <si>
+    <t>dev atlas</t>
+  </si>
+  <si>
+    <t>me19a</t>
+  </si>
+  <si>
+    <t>widiv biomass</t>
+  </si>
+  <si>
+    <t>mazaheri2019</t>
+  </si>
+  <si>
+    <t>453 inbreds</t>
+  </si>
+  <si>
+    <t>whole seedlings</t>
+  </si>
+  <si>
+    <t>yid</t>
+  </si>
+  <si>
+    <t>zhou2018</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>7 inbreds + 8 hybrids</t>
+  </si>
+  <si>
+    <t>me18c</t>
+  </si>
+  <si>
+    <t>maize-teosinte RIL</t>
+  </si>
+  <si>
+    <t>wang2018</t>
+  </si>
+  <si>
+    <t>W,T and RILs</t>
+  </si>
+  <si>
+    <t>seedling_v2</t>
+  </si>
+  <si>
+    <t>me13e</t>
+  </si>
+  <si>
+    <t>fu2013</t>
+  </si>
+  <si>
+    <t>kernel eQTL</t>
+  </si>
+  <si>
+    <t>me18e</t>
+  </si>
+  <si>
+    <t>tissue GRN</t>
+  </si>
+  <si>
+    <t>huang2018</t>
+  </si>
+  <si>
+    <t>diverse collections</t>
+  </si>
+  <si>
+    <t>4 tissues</t>
+  </si>
+  <si>
+    <t>ase</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
     <t>hisat2</t>
-  </si>
-  <si>
-    <t>Mo17</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>me18d</t>
-  </si>
-  <si>
-    <t>root ionics</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>48 inbreds</t>
-  </si>
-  <si>
-    <t>me13c</t>
-  </si>
-  <si>
-    <t>diverse inbreds</t>
-  </si>
-  <si>
-    <t>me99f</t>
-  </si>
-  <si>
-    <t>62 inbreds</t>
-  </si>
-  <si>
-    <t>me13d</t>
-  </si>
-  <si>
-    <t>4 reciprocal hybrids</t>
-  </si>
-  <si>
-    <t>seedling_leaf3</t>
-  </si>
-  <si>
-    <t>me17b</t>
-  </si>
-  <si>
-    <t>stress cis-trans</t>
-  </si>
-  <si>
-    <t>imprinting</t>
-  </si>
-  <si>
-    <t>seedlilng</t>
-  </si>
-  <si>
-    <t>F1 btw. B,W,P</t>
-  </si>
-  <si>
-    <t>me14e</t>
-  </si>
-  <si>
-    <t>embryo+endosperm</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>me17c</t>
-  </si>
-  <si>
-    <t>marcon2017</t>
-  </si>
-  <si>
-    <t>B, M anf F1</t>
-  </si>
-  <si>
-    <t>li2010</t>
-  </si>
-  <si>
-    <t>davidson2011</t>
-  </si>
-  <si>
-    <t>bolduc2012</t>
-  </si>
-  <si>
-    <t>li2013</t>
-  </si>
-  <si>
-    <t>liu2013</t>
-  </si>
-  <si>
-    <t>eitchen2013</t>
-  </si>
-  <si>
-    <t>waters2013</t>
-  </si>
-  <si>
-    <t>hirsch2014</t>
-  </si>
-  <si>
-    <t>li2014</t>
-  </si>
-  <si>
-    <t>chettoor2014</t>
-  </si>
-  <si>
-    <t>johnston2014</t>
-  </si>
-  <si>
-    <t>chen2014</t>
-  </si>
-  <si>
-    <t>leiboff2015</t>
-  </si>
-  <si>
-    <t>yu2015</t>
-  </si>
-  <si>
-    <t>stelpflug2016</t>
-  </si>
-  <si>
-    <t>walley2016</t>
-  </si>
-  <si>
-    <t>lin2017</t>
-  </si>
-  <si>
-    <t>kremling2018</t>
-  </si>
-  <si>
-    <t>baldauf2018</t>
-  </si>
-  <si>
-    <t>schaefer2018</t>
-  </si>
-  <si>
-    <t>kaeppler2018</t>
-  </si>
-  <si>
-    <t>enders</t>
-  </si>
-  <si>
-    <t>settles</t>
-  </si>
-  <si>
-    <t>anderson</t>
-  </si>
-  <si>
-    <t>B, M, P and F1</t>
-  </si>
-  <si>
-    <t>B and M</t>
-  </si>
-  <si>
-    <t>drought stress</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>waters2017</t>
-  </si>
-  <si>
-    <t>me10a+me13b+me15b</t>
-  </si>
-  <si>
-    <t>leaf 22</t>
-  </si>
-  <si>
-    <t>me13b+me15b</t>
-  </si>
-  <si>
-    <t>me14b+me14e</t>
-  </si>
-  <si>
-    <t>me16b+me16c+me99b</t>
-  </si>
-  <si>
-    <t>170 inbreds + 96 hybrids</t>
-  </si>
-  <si>
-    <t>li2019</t>
-  </si>
-  <si>
-    <t>leaf 40</t>
-  </si>
-  <si>
-    <t>mec04</t>
-  </si>
-  <si>
-    <t>me17c+me18b</t>
-  </si>
-  <si>
-    <t>93 tissues</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>reproductive</t>
-  </si>
-  <si>
-    <t>B,M and RILs</t>
-  </si>
-  <si>
-    <t>368 inbreds</t>
-  </si>
-  <si>
-    <t>dev atlas</t>
-  </si>
-  <si>
-    <t>me19a</t>
-  </si>
-  <si>
-    <t>widiv biomass</t>
-  </si>
-  <si>
-    <t>mazaheri2019</t>
-  </si>
-  <si>
-    <t>453 inbreds</t>
-  </si>
-  <si>
-    <t>whole seedlings</t>
-  </si>
-  <si>
-    <t>yid</t>
-  </si>
-  <si>
-    <t>zhou2018</t>
-  </si>
-  <si>
-    <t>me99b_m</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>7 inbreds + 8 hybrids</t>
-  </si>
-  <si>
-    <t>me18c</t>
-  </si>
-  <si>
-    <t>maize-teosinte RIL</t>
-  </si>
-  <si>
-    <t>wang2018</t>
-  </si>
-  <si>
-    <t>W,T and RILs</t>
-  </si>
-  <si>
-    <t>seedling_v2</t>
-  </si>
-  <si>
-    <t>me13e</t>
-  </si>
-  <si>
-    <t>fu2013</t>
-  </si>
-  <si>
-    <t>kernel eQTL</t>
   </si>
 </sst>
 </file>
@@ -898,11 +910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC1A4-C8EB-CE46-B1CB-3371A3A45227}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,18 +927,19 @@
     <col min="6" max="6" width="4.33203125" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -947,31 +960,34 @@
         <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
-        <v>150</v>
-      </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" t="s">
-        <v>163</v>
-      </c>
       <c r="O1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -979,7 +995,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -990,26 +1006,26 @@
       <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1017,7 +1033,7 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -1028,26 +1044,26 @@
       <c r="F3" t="s">
         <v>74</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
       <c r="J3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -1066,26 +1082,26 @@
       <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
       <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
         <v>56</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -1104,26 +1120,26 @@
       <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="I5" t="s">
-        <v>152</v>
-      </c>
       <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>105</v>
       </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1147,7 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -1142,72 +1158,72 @@
       <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
       <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
         <v>70</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7">
+        <v>62</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="B8" t="s">
         <v>98</v>
       </c>
-      <c r="K7">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -1218,31 +1234,31 @@
       <c r="F8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" t="s">
-        <v>97</v>
-      </c>
       <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
       <c r="M8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -1253,26 +1269,26 @@
       <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="I9" t="s">
-        <v>153</v>
-      </c>
       <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>368</v>
       </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -1291,26 +1307,26 @@
       <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>503</v>
       </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1334,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -1329,26 +1345,26 @@
       <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
       <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="L11">
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1372,7 @@
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -1367,26 +1383,26 @@
       <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
       <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
         <v>53</v>
       </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L12">
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -1405,31 +1421,31 @@
       <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
       <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
-        <v>7</v>
-      </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -1440,26 +1456,26 @@
       <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
       <c r="J14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -1478,26 +1494,26 @@
       <c r="F15" t="s">
         <v>74</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>62</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>15</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>380</v>
       </c>
-      <c r="L15" t="s">
-        <v>7</v>
-      </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1505,7 +1521,7 @@
         <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -1516,26 +1532,26 @@
       <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
       <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
         <v>71</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>9</v>
       </c>
-      <c r="L16" t="s">
-        <v>7</v>
-      </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1559,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -1554,26 +1570,26 @@
       <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
       <c r="J17" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17">
         <v>93</v>
       </c>
-      <c r="L17" t="s">
-        <v>7</v>
-      </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +1597,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -1592,26 +1608,26 @@
       <c r="F18" t="s">
         <v>74</v>
       </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
       <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>23</v>
       </c>
-      <c r="L18" t="s">
-        <v>7</v>
-      </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1619,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -1630,34 +1646,34 @@
       <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>24</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>25</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>133</v>
       </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -1671,28 +1687,28 @@
       <c r="H20" t="s">
         <v>78</v>
       </c>
-      <c r="I20" t="s">
-        <v>134</v>
-      </c>
       <c r="J20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7</v>
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -1707,25 +1723,31 @@
         <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21">
+        <v>106</v>
+      </c>
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21">
         <v>8</v>
       </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1733,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -1744,26 +1766,26 @@
       <c r="F22" t="s">
         <v>74</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1781</v>
       </c>
-      <c r="L22" t="s">
-        <v>7</v>
-      </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1771,7 +1793,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -1782,224 +1804,224 @@
       <c r="F23" t="s">
         <v>74</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>32</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>33</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>46</v>
       </c>
-      <c r="L23" t="s">
-        <v>7</v>
-      </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" t="s">
         <v>166</v>
       </c>
-      <c r="B24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="L24">
+        <v>623</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>170</v>
       </c>
-      <c r="K24">
-        <v>623</v>
-      </c>
-      <c r="L24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25">
-        <v>48</v>
-      </c>
-      <c r="L25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" t="s">
-        <v>84</v>
-      </c>
-      <c r="N25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26">
+        <v>1136</v>
+      </c>
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s">
         <v>155</v>
       </c>
-      <c r="B26" t="s">
+      <c r="K27" t="s">
         <v>156</v>
       </c>
-      <c r="C26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s">
-        <v>158</v>
-      </c>
-      <c r="J26" t="s">
-        <v>159</v>
-      </c>
-      <c r="K26">
+      <c r="L27">
         <v>453</v>
       </c>
-      <c r="L26" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" t="s">
-        <v>84</v>
-      </c>
-      <c r="N26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" t="s">
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="L28">
         <v>460</v>
       </c>
-      <c r="L27" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" t="s">
-        <v>84</v>
-      </c>
-      <c r="N27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28">
-        <v>23</v>
-      </c>
-      <c r="L28" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" t="s">
-        <v>85</v>
-      </c>
-      <c r="N28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>162</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -2011,25 +2033,28 @@
         <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" t="s">
         <v>21</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>23</v>
       </c>
-      <c r="L29" t="s">
-        <v>86</v>
-      </c>
       <c r="M29" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="N29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="O29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2037,7 +2062,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
         <v>82</v>
@@ -2048,26 +2073,26 @@
       <c r="F30" t="s">
         <v>74</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>40</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>25</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>465</v>
       </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2075,7 +2100,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -2089,23 +2114,23 @@
       <c r="H31" t="s">
         <v>78</v>
       </c>
-      <c r="I31" t="s">
-        <v>135</v>
-      </c>
       <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
         <v>72</v>
       </c>
-      <c r="L31" t="s">
-        <v>7</v>
-      </c>
       <c r="M31" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2113,7 +2138,7 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -2124,28 +2149,28 @@
       <c r="F32" t="s">
         <v>74</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>63</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>13</v>
       </c>
-      <c r="L32" t="s">
-        <v>7</v>
-      </c>
       <c r="M32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -2157,27 +2182,27 @@
         <v>74</v>
       </c>
       <c r="I33" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" t="s">
         <v>13</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>12</v>
       </c>
-      <c r="L33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -2191,31 +2216,31 @@
       <c r="G34" t="s">
         <v>78</v>
       </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
       <c r="J34" t="s">
-        <v>146</v>
-      </c>
-      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="K34" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34">
         <v>40</v>
       </c>
-      <c r="L34" t="s">
-        <v>7</v>
-      </c>
       <c r="M34" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -2229,31 +2254,31 @@
       <c r="G35" t="s">
         <v>78</v>
       </c>
-      <c r="I35" t="s">
-        <v>7</v>
-      </c>
       <c r="J35" t="s">
-        <v>105</v>
-      </c>
-      <c r="K35">
-        <v>61</v>
-      </c>
-      <c r="L35" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35">
+        <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -2267,31 +2292,31 @@
       <c r="G36" t="s">
         <v>78</v>
       </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
       <c r="J36" t="s">
-        <v>154</v>
-      </c>
-      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="K36" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36">
         <v>139</v>
       </c>
-      <c r="L36" t="s">
-        <v>7</v>
-      </c>
       <c r="M36" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -2305,31 +2330,31 @@
       <c r="G37" t="s">
         <v>78</v>
       </c>
-      <c r="I37" t="s">
-        <v>165</v>
-      </c>
       <c r="J37" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" t="s">
         <v>33</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>50</v>
       </c>
-      <c r="L37" t="s">
-        <v>7</v>
-      </c>
       <c r="M37" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>81</v>
@@ -2343,22 +2368,22 @@
       <c r="G38" t="s">
         <v>78</v>
       </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
       <c r="J38" t="s">
-        <v>140</v>
-      </c>
-      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38">
         <v>22</v>
       </c>
-      <c r="L38" t="s">
-        <v>7</v>
-      </c>
       <c r="M38" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="N38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" t="s">
         <v>78</v>
       </c>
     </row>
